--- a/medicine/Enfance/Nils_Johan_Rud/Nils_Johan_Rud.xlsx
+++ b/medicine/Enfance/Nils_Johan_Rud/Nils_Johan_Rud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nils Johan Rud, né à Ringsaker le 24 juillet 1908 et mort à Asker le 7 juin 1993, est un journaliste, éditeur, romancier et nouvelliste norvégien, aussi connu pour être l'auteur d'ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant de travailler comme journaliste, il exerce divers petits métiers : apprenti dans une usine de boissons gazeuses, tailleur dans un atelier, jardinier et vendeur. En 1931 et 1932, il est l'éditeur du journal Asker Blad, puis, jusqu'en 1970, celui du magazine Arbeidermagasinet dans lequel paraîtront plusieurs de ses nouvelles.
 En 1928, il publie Gutter på skoggang, son premier ouvrage destiné à la jeunesse qui est suivi de plusieurs autres. En 1933, il s'essaie au roman avec Vi skal ha et barn, mais le succès et la notoriété lui vient avec Jeg er ingen proletar en 1935.
@@ -547,13 +561,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Trilogie romanesque
-Fredens sønner, 1947
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Trilogie romanesque</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fredens sønner, 1947
 Kvinner i advent, 1948
-Vi var jordens elskere, 1949
-Autres romans
-Vi skal ha et barn, 1933
+Vi var jordens elskere, 1949</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nils_Johan_Rud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nils_Johan_Rud</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vi skal ha et barn, 1933
 Så stjeler vi et fattighus 1934
 Jeg er ingen proletar, 1935
 Alle tiders største, 1936
@@ -570,16 +630,84 @@
 Ekko i det gamle tun, 1982
 Spinnehjulet, 1986
 Det har ventet på deg, 1988
-En fremmed i speilet, 1993
-Ouvrages de littérature d'enfance et de jeunesse
-Gutter på skoggang, 1928
+En fremmed i speilet, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nils_Johan_Rud</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nils_Johan_Rud</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Gutter på skoggang, 1928
 Karsemne, 1931
 Skaugumtrollet, 1934
 Tusser og troll, 1934
 Stifinner, 1935
-Et riktig mannfolk, 1936
-Recueils de nouvelles et d'essais
-Fri jord, 1945
+Et riktig mannfolk, 1936</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nils_Johan_Rud</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nils_Johan_Rud</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles et d'essais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fri jord, 1945
 Både vinter og vår, 1952
 I eventyrskog, 1955
 Det var en lørdag aften, 1959
